--- a/results/Supporting information/Table S4. Phylogenetic signals and random factors significances.xlsx
+++ b/results/Supporting information/Table S4. Phylogenetic signals and random factors significances.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioviedo-my.sharepoint.com/personal/espinosaclara_uniovi_es/Documents/IMIB/Softwares/GitHub/movealong/results/Supporting information/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioviedo-my.sharepoint.com/personal/espinosaclara_uniovi_es/Documents/IMIB/Softwares/GitHub/Germination_phenology/results/Supporting information/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="64" documentId="8_{B53914C0-67F1-4C4F-A1AF-93613356ACC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{720EF457-98EC-409D-9D8E-41B73C8BCA4B}"/>
+  <xr:revisionPtr revIDLastSave="86" documentId="8_{B53914C0-67F1-4C4F-A1AF-93613356ACC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{83C3F8D8-B9C9-4544-A674-33366E33487B}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{73DE64BF-9BE9-4FF0-9ED1-4FBD28333F55}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="20">
   <si>
     <t xml:space="preserve">population:species </t>
   </si>
@@ -71,24 +71,15 @@
     <t>post.mean</t>
   </si>
   <si>
-    <t>code:ID = poblacion dentro especie</t>
-  </si>
-  <si>
     <t>Temperate</t>
   </si>
   <si>
     <t>Mediterranean</t>
   </si>
   <si>
-    <t>ID = especies</t>
-  </si>
-  <si>
     <t>Random =    ~ animal + code:ID</t>
   </si>
   <si>
-    <t>animal = filogenia</t>
-  </si>
-  <si>
     <t>U_95% CI</t>
   </si>
   <si>
@@ -102,15 +93,25 @@
   </si>
   <si>
     <t>Winter germination</t>
+  </si>
+  <si>
+    <t>Table S4. Phylogenetic signal and random factor significances on models with incubator as fixed factor.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -467,7 +468,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -476,72 +477,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -557,6 +554,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -856,15 +857,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCAC97C4-E4B6-4F8C-A303-3F3A7A54E556}">
-  <dimension ref="A1:H31"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:H10"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" customWidth="1"/>
     <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
@@ -874,683 +878,666 @@
     <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="16" t="s">
+    <row r="1" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+    </row>
+    <row r="2" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="16"/>
+      <c r="C4" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="20"/>
+      <c r="H4" s="21"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="23"/>
+      <c r="C5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="12" t="s">
+      <c r="E5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="25"/>
+      <c r="C6" s="6">
+        <v>0.97</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0.94</v>
+      </c>
+      <c r="E6" s="8">
+        <v>0.99</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0.97</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0.94</v>
+      </c>
+      <c r="H6" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="25"/>
+      <c r="C7" s="6">
+        <v>0.93</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0.86</v>
+      </c>
+      <c r="E7" s="8">
+        <v>0.98</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0.96</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0.91</v>
+      </c>
+      <c r="H7" s="8">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="25"/>
+      <c r="C8" s="6">
+        <v>0.91</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0.81</v>
+      </c>
+      <c r="E8" s="8">
+        <v>0.98</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0.93</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="H8" s="8">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="25"/>
+      <c r="C9" s="6">
+        <v>0.88</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0.74</v>
+      </c>
+      <c r="E9" s="8">
+        <v>0.99</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0.85</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0.71</v>
+      </c>
+      <c r="H9" s="8">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="25"/>
+      <c r="C10" s="6">
+        <v>0.95</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0.91</v>
+      </c>
+      <c r="E10" s="8">
+        <v>0.99</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0.95</v>
+      </c>
+      <c r="G10" s="7">
+        <v>0.92</v>
+      </c>
+      <c r="H10" s="8">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="25"/>
+      <c r="C11" s="6">
+        <v>0.73</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0.39</v>
+      </c>
+      <c r="E11" s="8">
+        <v>0.95</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0.59</v>
+      </c>
+      <c r="G11" s="7">
+        <v>0.34</v>
+      </c>
+      <c r="H11" s="8">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="27"/>
+      <c r="C12" s="9">
+        <v>0.47</v>
+      </c>
+      <c r="D12" s="10">
+        <v>0</v>
+      </c>
+      <c r="E12" s="11">
+        <v>0.78</v>
+      </c>
+      <c r="F12" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="G12" s="10">
+        <v>0</v>
+      </c>
+      <c r="H12" s="11">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="19"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="22">
-        <v>0.97</v>
-      </c>
-      <c r="D4" s="23">
-        <v>0.94</v>
-      </c>
-      <c r="E4" s="24">
-        <v>0.99</v>
-      </c>
-      <c r="F4" s="22">
-        <v>0.97</v>
-      </c>
-      <c r="G4" s="23">
-        <v>0.94</v>
-      </c>
-      <c r="H4" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="22">
-        <v>0.93</v>
-      </c>
-      <c r="D5" s="23">
-        <v>0.86</v>
-      </c>
-      <c r="E5" s="24">
-        <v>0.98</v>
-      </c>
-      <c r="F5" s="22">
-        <v>0.96</v>
-      </c>
-      <c r="G5" s="23">
-        <v>0.91</v>
-      </c>
-      <c r="H5" s="24">
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="22">
-        <v>0.91</v>
-      </c>
-      <c r="D6" s="23">
-        <v>0.81</v>
-      </c>
-      <c r="E6" s="24">
-        <v>0.98</v>
-      </c>
-      <c r="F6" s="22">
-        <v>0.93</v>
-      </c>
-      <c r="G6" s="23">
-        <v>0.8</v>
-      </c>
-      <c r="H6" s="24">
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="22">
-        <v>0.88</v>
-      </c>
-      <c r="D7" s="23">
-        <v>0.74</v>
-      </c>
-      <c r="E7" s="24">
-        <v>0.99</v>
-      </c>
-      <c r="F7" s="22">
-        <v>0.85</v>
-      </c>
-      <c r="G7" s="23">
-        <v>0.71</v>
-      </c>
-      <c r="H7" s="24">
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="22">
-        <v>0.95</v>
-      </c>
-      <c r="D8" s="23">
-        <v>0.91</v>
-      </c>
-      <c r="E8" s="24">
-        <v>0.99</v>
-      </c>
-      <c r="F8" s="22">
-        <v>0.95</v>
-      </c>
-      <c r="G8" s="23">
-        <v>0.92</v>
-      </c>
-      <c r="H8" s="24">
-        <v>0.98</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="22">
-        <v>0.73</v>
-      </c>
-      <c r="D9" s="23">
-        <v>0.39</v>
-      </c>
-      <c r="E9" s="24">
-        <v>0.95</v>
-      </c>
-      <c r="F9" s="22">
-        <v>0.59</v>
-      </c>
-      <c r="G9" s="23">
-        <v>0.34</v>
-      </c>
-      <c r="H9" s="24">
-        <v>0.83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="25">
-        <v>0.47</v>
-      </c>
-      <c r="D10" s="26">
-        <v>0</v>
-      </c>
-      <c r="E10" s="27">
-        <v>0.78</v>
-      </c>
-      <c r="F10" s="25">
-        <v>0.4</v>
-      </c>
-      <c r="G10" s="26">
-        <v>0</v>
-      </c>
-      <c r="H10" s="27">
-        <v>0.74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="28"/>
       <c r="D14" s="28"/>
       <c r="E14" s="28"/>
       <c r="F14" s="28"/>
       <c r="G14" s="28"/>
       <c r="H14" s="28"/>
     </row>
-    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="30" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C15" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="28" t="s">
+      <c r="G15" s="20"/>
+      <c r="H15" s="21"/>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="28" t="s">
+      <c r="D16" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="28" t="s">
+      <c r="E16" t="s">
         <v>8</v>
       </c>
-      <c r="F17" s="28" t="s">
+      <c r="F16" t="s">
         <v>10</v>
       </c>
-      <c r="G17" s="28" t="s">
+      <c r="G16" t="s">
         <v>9</v>
       </c>
-      <c r="H17" s="28" t="s">
+      <c r="H16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="32">
+      <c r="C17" s="12">
         <v>40.78</v>
       </c>
-      <c r="D18" s="33">
+      <c r="D17" s="13">
         <v>10.45</v>
       </c>
-      <c r="E18" s="33">
+      <c r="E17" s="13">
         <v>84.88</v>
       </c>
-      <c r="F18" s="32">
+      <c r="F17" s="12">
         <v>46.73</v>
       </c>
-      <c r="G18" s="33">
+      <c r="G17" s="13">
         <v>8.51</v>
       </c>
-      <c r="H18" s="33">
+      <c r="H17" s="13">
         <v>109.03</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="7"/>
-      <c r="B19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="25">
+    <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="30"/>
+      <c r="B18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="9">
         <v>3.25</v>
       </c>
-      <c r="D19" s="26">
+      <c r="D18" s="10">
         <v>0.91</v>
       </c>
-      <c r="E19" s="26">
+      <c r="E18" s="10">
         <v>6.62</v>
       </c>
-      <c r="F19" s="25">
+      <c r="F18" s="9">
         <v>3.07</v>
       </c>
-      <c r="G19" s="26">
+      <c r="G18" s="10">
         <v>0.26</v>
       </c>
-      <c r="H19" s="26">
+      <c r="H18" s="10">
         <v>7.86</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="2" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="32">
+      <c r="C19" s="12">
         <v>26.23</v>
       </c>
-      <c r="D20" s="33">
+      <c r="D19" s="13">
         <v>6.26</v>
       </c>
-      <c r="E20" s="33">
+      <c r="E19" s="13">
         <v>55.91</v>
       </c>
-      <c r="F20" s="32">
+      <c r="F19" s="12">
         <v>33.700000000000003</v>
       </c>
-      <c r="G20" s="33">
-        <v>0</v>
-      </c>
-      <c r="H20" s="33">
+      <c r="G19" s="13">
+        <v>0</v>
+      </c>
+      <c r="H19" s="13">
         <v>72.56</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="7"/>
-      <c r="B21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" s="25">
+    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="30"/>
+      <c r="B20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="9">
         <v>1.03</v>
       </c>
-      <c r="D21" s="26">
-        <v>0</v>
-      </c>
-      <c r="E21" s="26">
+      <c r="D20" s="10">
+        <v>0</v>
+      </c>
+      <c r="E20" s="10">
         <v>3.27</v>
       </c>
-      <c r="F21" s="25">
+      <c r="F20" s="9">
         <v>1.57</v>
       </c>
-      <c r="G21" s="26">
-        <v>0</v>
-      </c>
-      <c r="H21" s="26">
+      <c r="G20" s="10">
+        <v>0</v>
+      </c>
+      <c r="H20" s="10">
         <v>6.8</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="32">
+      <c r="C21" s="12">
         <v>22.98</v>
       </c>
-      <c r="D22" s="33">
+      <c r="D21" s="13">
         <v>4.7300000000000004</v>
       </c>
-      <c r="E22" s="33">
+      <c r="E21" s="13">
         <v>48.8</v>
       </c>
-      <c r="F22" s="32">
+      <c r="F21" s="12">
         <v>37.549999999999997</v>
       </c>
-      <c r="G22" s="33">
-        <v>0</v>
-      </c>
-      <c r="H22" s="33">
+      <c r="G21" s="13">
+        <v>0</v>
+      </c>
+      <c r="H21" s="13">
         <v>76.44</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="7"/>
-      <c r="B23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" s="25">
+    <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="30"/>
+      <c r="B22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="9">
         <v>2.48</v>
       </c>
-      <c r="D23" s="26">
+      <c r="D22" s="10">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E23" s="26">
+      <c r="E22" s="10">
         <v>5.58</v>
       </c>
-      <c r="F23" s="25">
+      <c r="F22" s="9">
         <v>1.57</v>
       </c>
-      <c r="G23" s="26">
-        <v>0</v>
-      </c>
-      <c r="H23" s="26">
+      <c r="G22" s="10">
+        <v>0</v>
+      </c>
+      <c r="H22" s="10">
         <v>6.92</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B23" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="32">
+      <c r="C23" s="12">
         <v>13.94</v>
       </c>
-      <c r="D24" s="33">
+      <c r="D23" s="13">
         <v>1.41</v>
       </c>
-      <c r="E24" s="33">
+      <c r="E23" s="13">
         <v>34.33</v>
       </c>
-      <c r="F24" s="32">
+      <c r="F23" s="12">
         <v>11.36</v>
       </c>
-      <c r="G24" s="33">
+      <c r="G23" s="13">
         <v>1.84</v>
       </c>
-      <c r="H24" s="33">
+      <c r="H23" s="13">
         <v>22.71</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="7"/>
-      <c r="B25" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C25" s="25">
+    <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="30"/>
+      <c r="B24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="9">
         <v>0.57999999999999996</v>
       </c>
-      <c r="D25" s="26">
-        <v>0</v>
-      </c>
-      <c r="E25" s="26">
+      <c r="D24" s="10">
+        <v>0</v>
+      </c>
+      <c r="E24" s="10">
         <v>1.86</v>
       </c>
-      <c r="F25" s="25">
+      <c r="F24" s="9">
         <v>1.06</v>
       </c>
-      <c r="G25" s="26">
-        <v>0</v>
-      </c>
-      <c r="H25" s="26">
+      <c r="G24" s="10">
+        <v>0</v>
+      </c>
+      <c r="H24" s="10">
         <v>2.9</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B25" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="32">
+      <c r="C25" s="12">
         <v>22.93</v>
       </c>
-      <c r="D26" s="33">
+      <c r="D25" s="13">
         <v>4.8899999999999997</v>
       </c>
-      <c r="E26" s="33">
+      <c r="E25" s="13">
         <v>49.38</v>
       </c>
-      <c r="F26" s="32">
+      <c r="F25" s="12">
         <v>18.79</v>
       </c>
-      <c r="G26" s="33">
+      <c r="G25" s="13">
         <v>6.87</v>
       </c>
-      <c r="H26" s="33">
+      <c r="H25" s="13">
         <v>33.22</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="7"/>
-      <c r="B27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C27" s="25">
+    <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="30"/>
+      <c r="B26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="9">
         <v>1.52</v>
       </c>
-      <c r="D27" s="26">
+      <c r="D26" s="10">
         <v>0.38</v>
       </c>
-      <c r="E27" s="26">
+      <c r="E26" s="10">
         <v>3.24</v>
       </c>
-      <c r="F27" s="25">
+      <c r="F26" s="9">
         <v>0.64</v>
       </c>
-      <c r="G27" s="26">
-        <v>0</v>
-      </c>
-      <c r="H27" s="26">
+      <c r="G26" s="10">
+        <v>0</v>
+      </c>
+      <c r="H26" s="10">
         <v>1.8</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B27" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C28" s="32">
+      <c r="C27" s="12">
         <v>1.2</v>
       </c>
-      <c r="D28" s="33">
-        <v>0</v>
-      </c>
-      <c r="E28" s="33">
+      <c r="D27" s="13">
+        <v>0</v>
+      </c>
+      <c r="E27" s="13">
         <v>2.68</v>
       </c>
-      <c r="F28" s="32">
+      <c r="F27" s="12">
         <v>0.54</v>
       </c>
-      <c r="G28" s="33">
+      <c r="G27" s="13">
         <v>0.1</v>
       </c>
-      <c r="H28" s="33">
+      <c r="H27" s="13">
         <v>1.19</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="7"/>
-      <c r="B29" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" s="25">
+    <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="30"/>
+      <c r="B28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="9">
         <v>0.27</v>
       </c>
-      <c r="D29" s="26">
+      <c r="D28" s="10">
         <v>0.04</v>
       </c>
-      <c r="E29" s="26">
+      <c r="E28" s="10">
         <v>0.64</v>
       </c>
-      <c r="F29" s="25">
+      <c r="F28" s="9">
         <v>0.16</v>
       </c>
-      <c r="G29" s="26">
-        <v>0</v>
-      </c>
-      <c r="H29" s="26">
+      <c r="G28" s="10">
+        <v>0</v>
+      </c>
+      <c r="H28" s="10">
         <v>0.36</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B29" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C30" s="32">
+      <c r="C29" s="12">
         <v>0.63</v>
       </c>
-      <c r="D30" s="33">
-        <v>0</v>
-      </c>
-      <c r="E30" s="33">
+      <c r="D29" s="13">
+        <v>0</v>
+      </c>
+      <c r="E29" s="13">
         <v>1.6</v>
       </c>
-      <c r="F30" s="32">
+      <c r="F29" s="12">
         <v>0.49</v>
       </c>
-      <c r="G30" s="33">
-        <v>0</v>
-      </c>
-      <c r="H30" s="33">
+      <c r="G29" s="13">
+        <v>0</v>
+      </c>
+      <c r="H29" s="13">
         <v>1.4</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="7"/>
-      <c r="B31" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C31" s="25">
+    <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="30"/>
+      <c r="B30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="9">
         <v>0.38</v>
       </c>
-      <c r="D31" s="26">
+      <c r="D30" s="10">
         <v>0.08</v>
       </c>
-      <c r="E31" s="26">
+      <c r="E30" s="10">
         <v>0.77</v>
       </c>
-      <c r="F31" s="25">
+      <c r="F30" s="9">
         <v>0.56000000000000005</v>
       </c>
-      <c r="G31" s="26">
+      <c r="G30" s="10">
         <v>0.14000000000000001</v>
       </c>
-      <c r="H31" s="26">
+      <c r="H30" s="10">
         <v>1.1100000000000001</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
+  <mergeCells count="23">
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:H15"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="A5:B5"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>